--- a/Docs/Model/ReportModelo.xlsx
+++ b/Docs/Model/ReportModelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janine\Documents\infnet\mit_data_science\Docs\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E433B8D-7C7D-4A9F-87BB-718EF4261A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AD055-4ADD-4B2A-A2F8-845E16E9032D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7B438667-3787-489A-8EB0-9CA8E42C1596}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Relatório de Modelagem</t>
   </si>
   <si>
     <t>CURVA ROC</t>
-  </si>
-  <si>
-    <t>Treino realizado com 20% dos dados, de um total de 12.000 registros positivos e negativos</t>
   </si>
   <si>
     <t>Matriz de Confusão</t>
@@ -50,16 +47,13 @@
     <t>CLASSIFICAÇÃO GERAL</t>
   </si>
   <si>
-    <t>Coeficiente de Regressão</t>
-  </si>
-  <si>
     <t>Distribuição de Probabilidades do Modelo com Regressão Logistica</t>
   </si>
   <si>
-    <t>Arvore de Decisão</t>
+    <t>Exportação do Resultado</t>
   </si>
   <si>
-    <t>Exportação do Resultado</t>
+    <t>Treino realizado com 22% dos dados, de um total de 22.700 registros positivos e negativos</t>
   </si>
 </sst>
 </file>
@@ -138,16 +132,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -172,26 +166,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>998491</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE7AA14-8220-403B-AB0E-77ADA854FB25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E8F06D-38CD-4A80-BBA8-A93E133520FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
@@ -208,14 +204,72 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="774700" y="1257300"/>
-          <a:ext cx="4533900" cy="3098800"/>
+          <a:off x="850900" y="1231900"/>
+          <a:ext cx="4414791" cy="2946400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6607AAFD-25D8-4208-9F78-197E1655DB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="5156200"/>
+          <a:ext cx="4432300" cy="1778172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -227,77 +281,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>1139704</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
+        <xdr:cNvPr id="18" name="Imagem 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3AC087-28FB-41DD-9609-3A079204C2DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="876300" y="5130800"/>
-          <a:ext cx="4025900" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>927654</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagem 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F200DA4-0449-4491-9EE9-68495A51AC2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB6A6F7-0FFF-44AF-AF6F-E896EFDBF94D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,8 +319,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="787399" y="10134600"/>
-          <a:ext cx="4407455" cy="2997200"/>
+          <a:off x="761999" y="7543800"/>
+          <a:ext cx="4644905" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,22 +347,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>728372</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1077808</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
+        <xdr:cNvPr id="19" name="Imagem 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9A09E9-A870-4359-A15D-FA013702865E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530262F2-B8BD-454A-AF72-C5997739CF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -386,74 +385,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="673100" y="7543800"/>
-          <a:ext cx="4322472" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866872</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagem 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834FDD0B-8F59-491A-9A78-1857EF7FDD89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="698500" y="14097000"/>
-          <a:ext cx="4435572" cy="2730500"/>
+          <a:off x="685800" y="10033000"/>
+          <a:ext cx="4659208" cy="3263900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,21 +414,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>92224</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103970</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15">
+        <xdr:cNvPr id="20" name="Imagem 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8296DC6E-1DDF-4107-9E0B-3B2659448F3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B23643-B324-445C-AF88-BACB3CF5FF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -518,74 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="647700" y="18313400"/>
-          <a:ext cx="4648200" cy="3025924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>137484</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagem 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FEA779-6217-48A8-AE2E-5289B4B90615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="584200" y="22021800"/>
-          <a:ext cx="8748084" cy="1651000"/>
+          <a:off x="647700" y="21932900"/>
+          <a:ext cx="8651070" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -904,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88343DC6-B960-48D2-9911-B5A750DD0BC7}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U126" sqref="U126"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,127 +783,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="59" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
-    <row r="40" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="76" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="2" t="s">
+    <row r="85" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="100" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="121" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B121:N121"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B85:N85"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
